--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2486700.956223694</v>
+        <v>2642192.616095295</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18084029.22468237</v>
+        <v>16612500.99216495</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1513771.156497791</v>
+        <v>278692.0725916863</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4750398.2799881</v>
+        <v>5048117.306579105</v>
       </c>
     </row>
     <row r="11">
@@ -659,13 +661,13 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>248.4672923758151</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>261.1859844191656</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -725,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>36.05501213263886</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>217.8748142299687</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -902,13 +904,13 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>7.377912357043958</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>358.4890995379071</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1060,7 +1062,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>28.64436039545464</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>154.5033567532585</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>410.1956626707487</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1199,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>249.2733226502561</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>54.53682144529103</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>107.3792913045958</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800595</v>
       </c>
       <c r="C11" t="n">
-        <v>278.4319220233644</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314378</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1531,10 +1533,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>7.264602967359866</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>3.423392126085073</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
-        <v>38.66077263514889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
         <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791314378</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655118</v>
@@ -1765,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>35.75633396116313</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>134.2252585165369</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.98021706930135</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225661</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2135,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.630079656154</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2147,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633438</v>
       </c>
     </row>
     <row r="21">
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>39.88277234054614</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>225.1013595417833</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2536,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>135.4170480006335</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2722,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>103.8284742946031</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>99.2861660332433</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3187,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>122.6391170798906</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3196,10 +3198,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>57.17380082342394</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -3247,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3326,7 +3328,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>39.88277234054614</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3503,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3673,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>180.8611112561199</v>
+        <v>16.9257490316895</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3752,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>140.4238391434107</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3791,13 +3793,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3904,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>65.07405371603218</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3916,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307516</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>104.6990987647609</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.383853062969</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>204.816456709751</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.17722654850383</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>771.4315001967747</v>
+        <v>1208.492610164787</v>
       </c>
       <c r="C2" t="n">
-        <v>737.3294314206021</v>
+        <v>779.9109359020549</v>
       </c>
       <c r="D2" t="n">
-        <v>308.7477571578704</v>
+        <v>351.3292616393232</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>321.5949208380225</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>297.7678952876342</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>297.7678952876342</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1217.893900270473</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>1217.07884972191</v>
+        <v>1250.099555649518</v>
       </c>
       <c r="X2" t="n">
-        <v>1201.976790341625</v>
+        <v>1234.997496269233</v>
       </c>
       <c r="Y2" t="n">
-        <v>793.6906666412784</v>
+        <v>1230.75177660929</v>
       </c>
     </row>
     <row r="3">
@@ -4416,10 +4418,10 @@
         <v>33.94366860160834</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513676</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
         <v>739.9048540962709</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>858.7506050139928</v>
+        <v>600.6587786275059</v>
       </c>
       <c r="C4" t="n">
-        <v>686.1888934972177</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="D4" t="n">
-        <v>520.3109006987404</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5528969494776</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4513,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="W4" t="n">
-        <v>1270.644793662241</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="X4" t="n">
-        <v>1050.56922373298</v>
+        <v>864.4976534877803</v>
       </c>
       <c r="Y4" t="n">
-        <v>1050.56922373298</v>
+        <v>637.0779828018885</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1243.268593282432</v>
+        <v>1267.592954512942</v>
       </c>
       <c r="C5" t="n">
-        <v>1209.16652450626</v>
+        <v>1233.490885736769</v>
       </c>
       <c r="D5" t="n">
-        <v>1177.297143721108</v>
+        <v>1201.621504951618</v>
       </c>
       <c r="E5" t="n">
-        <v>748.7154694583763</v>
+        <v>767.846760109913</v>
       </c>
       <c r="F5" t="n">
-        <v>724.8884439079882</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233711</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>557.7649106726458</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762204</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="T5" t="n">
-        <v>1689.730993356131</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="U5" t="n">
-        <v>1689.730993356131</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="V5" t="n">
-        <v>1689.730993356131</v>
+        <v>2075.350505591519</v>
       </c>
       <c r="W5" t="n">
-        <v>1688.915942807568</v>
+        <v>1713.240304038078</v>
       </c>
       <c r="X5" t="n">
-        <v>1673.813883427283</v>
+        <v>1294.097840617388</v>
       </c>
       <c r="Y5" t="n">
-        <v>1669.56816376734</v>
+        <v>1289.852120957446</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>431.6596472970914</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>854.5838762389023</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>682.0221647221273</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>516.14417192365</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947712</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>266.2978593068819</v>
       </c>
       <c r="L7" t="n">
-        <v>33.94366860160834</v>
+        <v>684.5077410748429</v>
       </c>
       <c r="M7" t="n">
-        <v>453.9965675465116</v>
+        <v>1143.991608255756</v>
       </c>
       <c r="N7" t="n">
-        <v>874.0494664914149</v>
+        <v>1586.250411413401</v>
       </c>
       <c r="O7" t="n">
-        <v>1293.718715717196</v>
+        <v>2005.919660639182</v>
       </c>
       <c r="P7" t="n">
-        <v>1641.225609687538</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2340.960139477224</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>2095.08069305568</v>
       </c>
       <c r="U7" t="n">
-        <v>1429.886162364244</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="V7" t="n">
-        <v>1429.886162364244</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1429.886162364244</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1273.822165643781</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="Y7" t="n">
-        <v>1046.40249495789</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.561784452093</v>
+        <v>852.5762146508135</v>
       </c>
       <c r="C8" t="n">
-        <v>832.4193116355168</v>
+        <v>818.474145874641</v>
       </c>
       <c r="D8" t="n">
-        <v>396.5095268099613</v>
+        <v>786.6047650894895</v>
       </c>
       <c r="E8" t="n">
-        <v>366.7751860086605</v>
+        <v>756.8704242881888</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4832,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932281</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1964.569699866108</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>1559.714245277141</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X8" t="n">
-        <v>1544.612185896856</v>
+        <v>1687.161908836068</v>
       </c>
       <c r="Y8" t="n">
-        <v>1292.820950896597</v>
+        <v>1278.875785135721</v>
       </c>
     </row>
     <row r="9">
@@ -4893,7 +4895,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
         <v>714.2412710704069</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>933.2958513705998</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>760.7341398538248</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>594.8561470553475</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>425.0981433060848</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>248.391089267841</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>193.303390838254</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4999,13 +5001,13 @@
         <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1569.669750526085</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1324.277995859497</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1938.618809420454</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1657.374443740288</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1221.464658914733</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>787.689914073028</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>359.8224844822358</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G11" t="n">
-        <v>359.8224844822358</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>70.69232992545206</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>70.27554055259206</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M11" t="n">
-        <v>230.494673407902</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>1100.154487746229</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>1969.814302084555</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>2798.124176917952</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3344.622962876546</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3513.777027629603</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3430.12515381344</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3430.12515381344</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3170.902851130457</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3170.902851130457</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2766.04739654149</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2346.904933120801</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1938.618809420454</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>469.9908243805272</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>205.9437709666589</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>758.3515566755764</v>
+        <v>790.3368563937611</v>
       </c>
       <c r="C13" t="n">
-        <v>585.7898451588013</v>
+        <v>617.775144876986</v>
       </c>
       <c r="D13" t="n">
-        <v>585.7898451588013</v>
+        <v>451.8971520785087</v>
       </c>
       <c r="E13" t="n">
-        <v>416.0318414095386</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>239.3247873712948</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>73.73351239712244</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354664</v>
       </c>
       <c r="K13" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006602</v>
       </c>
       <c r="L13" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745631</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955476</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113121</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338902</v>
       </c>
       <c r="P13" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309244</v>
       </c>
       <c r="Q13" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173577</v>
       </c>
       <c r="R13" t="n">
-        <v>2665.517329160764</v>
+        <v>2697.502628878949</v>
       </c>
       <c r="S13" t="n">
-        <v>2506.27596045876</v>
+        <v>2538.261260176945</v>
       </c>
       <c r="T13" t="n">
-        <v>2260.396514037216</v>
+        <v>2292.3818137554</v>
       </c>
       <c r="U13" t="n">
-        <v>1981.963513290321</v>
+        <v>2013.948813008506</v>
       </c>
       <c r="V13" t="n">
-        <v>1695.008005160751</v>
+        <v>1726.993304878936</v>
       </c>
       <c r="W13" t="n">
-        <v>1422.981600747043</v>
+        <v>1454.966900465228</v>
       </c>
       <c r="X13" t="n">
-        <v>1177.589846080455</v>
+        <v>1209.57514579864</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1701753945636</v>
+        <v>982.1554751127483</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1272.509238241558</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>834.3667654249808</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>398.4569805994253</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>359.4056951093759</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>359.4056951093759</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G14" t="n">
-        <v>359.4056951093759</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>70.27554055259206</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>70.27554055259206</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M14" t="n">
-        <v>230.494673407902</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
-        <v>1100.154487746229</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1969.814302084555</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2798.124176917952</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3344.622962876546</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3513.777027629603</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3513.777027629603</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3293.709800502642</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3293.709800502642</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2931.092850436468</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2526.237395847501</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2107.094932426812</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>1698.808808726465</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>469.9908243805272</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>939.9353548909188</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>1733.515302031401</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O15" t="n">
-        <v>1733.515302031401</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P15" t="n">
-        <v>1733.515302031401</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="Q15" t="n">
-        <v>1733.515302031401</v>
+        <v>1656.801388721157</v>
       </c>
       <c r="R15" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>758.3515566755764</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>758.3515566755764</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D16" t="n">
-        <v>758.3515566755764</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E16" t="n">
-        <v>588.5935529263136</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>411.8864988880698</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>246.2952239138975</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>106.393049604272</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2665.517329160764</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2506.27596045876</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T16" t="n">
-        <v>2260.396514037216</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U16" t="n">
-        <v>1981.963513290321</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V16" t="n">
-        <v>1695.008005160751</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W16" t="n">
-        <v>1422.981600747043</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X16" t="n">
-        <v>1177.589846080455</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1701753945636</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5601,13 +5603,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477117</v>
       </c>
       <c r="C19" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309366</v>
       </c>
       <c r="D19" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324593</v>
       </c>
       <c r="E19" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831966</v>
       </c>
       <c r="F19" t="n">
-        <v>356.5120644702766</v>
+        <v>267.8521152449529</v>
       </c>
       <c r="G19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707805</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707805</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130896</v>
       </c>
       <c r="T19" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.801834709351</v>
       </c>
       <c r="U19" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962456</v>
       </c>
       <c r="V19" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832887</v>
       </c>
       <c r="W19" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X19" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.995166752591</v>
       </c>
       <c r="Y19" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066699</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5734,13 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5783,16 +5785,16 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136696</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>4674.59075931313</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>4674.59075931313</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>4674.59075931313</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P21" t="n">
-        <v>4674.59075931313</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5993,19 +5995,19 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>936.6111322289576</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2093.658967439508</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176683</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
         <v>5113.04201353898</v>
@@ -6078,10 +6080,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>751.6989919312866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P24" t="n">
         <v>1765.500601749588</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2657.217000252137</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T25" t="n">
-        <v>2411.337553830592</v>
+        <v>2491.545339525313</v>
       </c>
       <c r="U25" t="n">
-        <v>2132.904553083697</v>
+        <v>2213.112338778418</v>
       </c>
       <c r="V25" t="n">
-        <v>1845.949044954127</v>
+        <v>1926.156830648849</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="26">
@@ -6227,16 +6229,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>388.1086717343205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.16863798718</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O26" t="n">
         <v>3569.079287993933</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
-        <v>1116.062450089081</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1004.611946844417</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C28" t="n">
-        <v>832.0502353276421</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D28" t="n">
-        <v>666.1722425291648</v>
+        <v>719.1944197946839</v>
       </c>
       <c r="E28" t="n">
-        <v>496.4142387799021</v>
+        <v>549.4364160454211</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>372.7293620071773</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>207.138087033005</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167233</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2989.847090516081</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>3774.360577026385</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>3774.360577026385</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>3774.360577026385</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N30" t="n">
-        <v>1300.985674363279</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O30" t="n">
-        <v>1300.985674363279</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3575.440564248063</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>3402.878852731288</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>3237.000859932811</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>3067.242856183548</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>2890.535802145304</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>4832.093766943114</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>4553.66076619622</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>4266.70525806665</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>3994.678853652942</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>3994.678853652942</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>3767.25918296705</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>1832.79925530553</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2989.847090516081</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6783,19 +6785,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.088111831086</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O33" t="n">
-        <v>1336.088111831086</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P33" t="n">
-        <v>1336.088111831086</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1062.363260807472</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>889.8015492906967</v>
+        <v>666.4589603534698</v>
       </c>
       <c r="D34" t="n">
-        <v>723.9235564922194</v>
+        <v>500.5809675549925</v>
       </c>
       <c r="E34" t="n">
-        <v>554.1655527429566</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G34" t="n">
         <v>330.8229638057298</v>
@@ -6895,13 +6897,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1726.993304878938</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1481.601550212351</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1254.181879526459</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6926,7 +6928,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,52 +6937,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>306.1208027766299</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7022,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7163,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,49 +7174,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>451.9501773887573</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.168637987181</v>
+        <v>1286.300469346935</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>2443.348304557486</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
         <v>2955.199618136697</v>
@@ -7251,22 +7253,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.552685307369</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P39" t="n">
         <v>1107.588885023173</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1015.727725908489</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>843.1660143917137</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>677.2880215932364</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>507.5300178439736</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057298</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7375,7 +7377,7 @@
         <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1207.546344627476</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1512.319238935547</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1074.17676611897</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1074.17676611897</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>640.4020212772652</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>212.534591686473</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>212.534591686473</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>70.69232992545206</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>904.62583251077</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>1774.285646849097</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M41" t="n">
-        <v>1969.814302084555</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N41" t="n">
-        <v>1969.814302084555</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O41" t="n">
-        <v>1969.814302084555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>2798.124176917952</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3344.622962876546</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>3513.777027629603</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3430.12515381344</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3430.12515381344</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3170.902851130457</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3170.902851130457</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2766.04739654149</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2346.904933120801</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1938.618809420454</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>469.9908243805272</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L42" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M42" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N42" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O42" t="n">
-        <v>939.9353548909188</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P42" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1045.307064805146</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>872.7453532883709</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>706.8673604898936</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>641.1359930999621</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>464.4289390617183</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>298.837664087546</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>158.9354897779205</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2665.517329160764</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2506.27596045876</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2260.396514037216</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>1981.963513290321</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1981.963513290321</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1709.937108876612</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1464.545354210025</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.125683524133</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1805.969972627221</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1367.827499810645</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>931.9177149850891</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>498.1429701433843</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>70.27554055259206</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>70.27554055259206</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>70.27554055259206</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>70.27554055259206</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>230.494673407902</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>230.494673407902</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>230.494673407902</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>1100.154487746229</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>1969.814302084555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>2798.124176917952</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3344.622962876546</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3513.777027629603</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3430.12515381344</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3210.057926686479</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3210.057926686479</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2847.440976620305</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2640.555666812476</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2640.555666812476</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2232.269543112129</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>469.9908243805272</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K45" t="n">
-        <v>255.8804188257874</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L45" t="n">
-        <v>255.8804188257874</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M45" t="n">
-        <v>255.8804188257874</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N45" t="n">
-        <v>255.8804188257874</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O45" t="n">
-        <v>255.8804188257874</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1149.333701164473</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>976.7719896476984</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>810.8939968492211</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>641.1359930999583</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>464.4289390617145</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>298.8376640875422</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>158.9354897779167</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2527.693781753389</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2281.814335331844</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2003.381334584949</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1716.425826455379</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1444.399422041671</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1199.007667375083</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1199.007667375083</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>288.7962490401609</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -8225,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335037</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>385.0780411188023</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8376,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>218.0459320377826</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8541,10 +8543,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>667.5152066078568</v>
@@ -8693,16 +8695,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
-        <v>161.8375079346565</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>878.4442569074008</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8778,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>137.0386165798655</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O12" t="n">
-        <v>878.4442569074008</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M14" t="n">
-        <v>161.8375079346565</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>878.4442569074008</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9012,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>878.4442569074008</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>801.5959062025072</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,16 +9251,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9486,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q21" t="n">
-        <v>442.8800547735873</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,22 +9643,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>671.1057765021969</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9726,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9875,19 +9877,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>288.7351832965059</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7971848772036</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>288.735183296506</v>
+        <v>548.405358162976</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10188,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>922.699389992646</v>
+        <v>465.5893289127825</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10361,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,13 +10433,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>597.4989238114802</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10668,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>353.221552644422</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>935.0031416802861</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10899,13 +10901,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.03656536949893052</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11060,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>878.4442569074008</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>197.503692157029</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11151,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>878.4442569074008</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
-        <v>137.0386165798654</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>161.8375079346565</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>878.4442569074008</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>155.3291260650465</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>160.7958207444102</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.0797604404441</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>390.7762247581389</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800139</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>52.01701577190828</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>90.92021546249589</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.92021546249589</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627267</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>117.7661826744372</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>18.31929241554602</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.48338453116378</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>34.67467827192613</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>144.134485924086</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>48.19697732171672</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,10 +25086,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>117.7661826744374</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>229.4233680290253</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>44.28436272291287</v>
+        <v>208.2197249473433</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>145.8150138678052</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>102.9863699957379</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>195.990443333326</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.7232059832934</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>332763.4824910619</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>332763.4824910618</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>332763.4824910618</v>
+        <v>434657.5069133156</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>332763.4824910618</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986276</v>
       </c>
       <c r="C2" t="n">
         <v>495936.2708986278</v>
@@ -26320,40 +26322,40 @@
         <v>495936.2708986277</v>
       </c>
       <c r="E2" t="n">
-        <v>373098.450065736</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="F2" t="n">
-        <v>373098.450065736</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="G2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="H2" t="n">
         <v>487343.2653270508</v>
       </c>
       <c r="I2" t="n">
+        <v>487343.2653270506</v>
+      </c>
+      <c r="J2" t="n">
         <v>487343.2653270507</v>
-      </c>
-      <c r="J2" t="n">
-        <v>487343.2653270508</v>
       </c>
       <c r="K2" t="n">
         <v>487343.2653270507</v>
       </c>
       <c r="L2" t="n">
+        <v>487343.2653270508</v>
+      </c>
+      <c r="M2" t="n">
+        <v>487343.2653270508</v>
+      </c>
+      <c r="N2" t="n">
+        <v>487343.2653270508</v>
+      </c>
+      <c r="O2" t="n">
         <v>487343.2653270507</v>
       </c>
-      <c r="M2" t="n">
-        <v>487343.2653270506</v>
-      </c>
-      <c r="N2" t="n">
-        <v>487343.2653270507</v>
-      </c>
-      <c r="O2" t="n">
-        <v>373098.450065736</v>
-      </c>
       <c r="P2" t="n">
-        <v>373098.450065736</v>
+        <v>487343.2653270508</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501631</v>
       </c>
       <c r="D3" t="n">
-        <v>75551.22640712859</v>
+        <v>11527.59554998263</v>
       </c>
       <c r="E3" t="n">
-        <v>62978.77398033721</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109583.635915743</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877263</v>
       </c>
       <c r="L3" t="n">
-        <v>61556.6282799684</v>
+        <v>9392.3017266222</v>
       </c>
       <c r="M3" t="n">
-        <v>52564.36305084753</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,34 +26420,34 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>121997.5637970938</v>
       </c>
       <c r="D4" t="n">
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>617.30896196318</v>
+        <v>806.3323907825378</v>
       </c>
       <c r="F4" t="n">
-        <v>617.308961963158</v>
+        <v>806.3323907825749</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907825456</v>
+        <v>806.3323907825379</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907825702</v>
+        <v>806.3323907825677</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826021</v>
       </c>
       <c r="M4" t="n">
         <v>806.3323907826023</v>
@@ -26454,10 +26456,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>617.3089619631285</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>617.30896196318</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800261</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53409.41081996997</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>53409.41081996997</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>53409.41081996997</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>53409.41081996997</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>125152.0888319356</v>
       </c>
       <c r="C6" t="n">
-        <v>267343.3894916456</v>
+        <v>235394.7253985151</v>
       </c>
       <c r="D6" t="n">
-        <v>232668.1137114908</v>
+        <v>296691.7445686368</v>
       </c>
       <c r="E6" t="n">
-        <v>256092.9563034657</v>
+        <v>226463.585109426</v>
       </c>
       <c r="F6" t="n">
-        <v>319071.7302838029</v>
+        <v>408818.6943304758</v>
       </c>
       <c r="G6" t="n">
-        <v>299235.0584147326</v>
+        <v>408818.6943304757</v>
       </c>
       <c r="H6" t="n">
-        <v>408818.6943304756</v>
+        <v>408818.6943304757</v>
       </c>
       <c r="I6" t="n">
-        <v>408818.6943304756</v>
+        <v>408818.6943304755</v>
       </c>
       <c r="J6" t="n">
         <v>297804.2289854854</v>
       </c>
       <c r="K6" t="n">
-        <v>408818.6943304756</v>
+        <v>355772.839691703</v>
       </c>
       <c r="L6" t="n">
-        <v>347262.0660505072</v>
+        <v>399426.3926038534</v>
       </c>
       <c r="M6" t="n">
-        <v>356254.331279628</v>
+        <v>256618.5233924881</v>
       </c>
       <c r="N6" t="n">
         <v>408818.6943304756</v>
       </c>
       <c r="O6" t="n">
-        <v>319071.730283803</v>
+        <v>408818.6943304756</v>
       </c>
       <c r="P6" t="n">
-        <v>319071.7302838029</v>
+        <v>408818.6943304756</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>878.4442569074008</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>878.4442569074008</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>878.4442569074008</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>878.4442569074008</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="D4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939294</v>
       </c>
       <c r="E4" t="n">
-        <v>210.9290502995439</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>399.8162464773445</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="L4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939294</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9290502995439</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="L4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939294</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9290502995439</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>399.8162464773445</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>180.9697050174727</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>25.05286859205029</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>153.8454203991584</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>25.06302288995298</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27622,13 +27624,13 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4886424986478</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>42.31780050516988</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27780,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>247.0043103439711</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>88.43448036666317</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>13.39309262413559</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>154.929939813087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>109.3985407791396</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>161.9268490649756</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -28561,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.463538142155652e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28855,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-3.936596670799811e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -34784,13 +34786,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>288.7962490401609</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>424.2958575201044</v>
@@ -34945,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335037</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.404832368464</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,19 +35026,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>385.0780411188023</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,16 +35096,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>218.0459320377826</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
@@ -35112,7 +35114,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.52305090189816</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35261,10 +35263,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>667.5152066078568</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
-        <v>161.8375079346565</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>878.4442569074008</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>137.0386165798655</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="O12" t="n">
-        <v>878.4442569074008</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743907757</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M14" t="n">
-        <v>161.8375079346565</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>878.4442569074008</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>878.4442569074008</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>801.5959062025072</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>109.7971848772036</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35969,16 +35971,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.833165749999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q21" t="n">
-        <v>442.8800547735873</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,22 +36363,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>671.1057765021969</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36446,13 +36448,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>1024.042030119497</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36595,19 +36597,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>288.7351832965059</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36686,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>109.7971848772036</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>288.735183296506</v>
+        <v>548.405358162976</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>922.699389992646</v>
+        <v>465.5893289127825</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37081,16 +37083,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-4.768840512258373e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>597.4989238114802</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37388,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>353.221552644422</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>935.0031416802861</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.03656536949893052</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>878.4442569074008</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>197.503692157029</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37871,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>878.4442569074008</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
-        <v>137.0386165798654</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37941,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>161.8375079346565</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>878.4442569074008</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>187.4796750234297</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,7 +38110,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P45" t="n">
         <v>828.0031984638366</v>
@@ -38178,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2642192.616095295</v>
+        <v>2641667.433726262</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216495</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916863</v>
+        <v>278692.0725916865</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>261.1859844191656</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>212.5823655684087</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.05501213263886</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -879,10 +879,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1.451086223607416</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -904,19 +904,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>169.8370394733332</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>358.4890995379071</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1074,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>28.64436039545464</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>221.894173514743</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>178.0857308800425</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>410.1956626707487</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>107.3792913045958</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800595</v>
+        <v>422.0365747800601</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869773</v>
@@ -1384,13 +1384,13 @@
         <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314378</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800052</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,13 +1429,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>82.64119670414925</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>7.264602967359866</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800595</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314378</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864825</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1815,16 +1815,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436873</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>134.2252585165369</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225661</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633438</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>108.1177056177444</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2298,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>225.1013595417833</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>103.8284742946031</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2964,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>122.6391170798906</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3328,7 +3328,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.8069000430772</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
         <v>414.9510387864824</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>50.30825486907107</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3505,7 +3505,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>71.95361350212656</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.9257490316895</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3906,19 +3906,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>94.431236732152</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>104.6990987647609</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.383853062969</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4194,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>67.84972440587271</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1208.492610164787</v>
+        <v>153.4764845146214</v>
       </c>
       <c r="C2" t="n">
-        <v>779.9109359020549</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>351.3292616393232</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>321.5949208380225</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>297.7678952876342</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>297.7678952876342</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4330,22 +4330,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1250.914606198081</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W2" t="n">
-        <v>1250.099555649518</v>
+        <v>1003.164238080161</v>
       </c>
       <c r="X2" t="n">
-        <v>1234.997496269233</v>
+        <v>584.0217746594717</v>
       </c>
       <c r="Y2" t="n">
-        <v>1230.75177660929</v>
+        <v>579.7760549995292</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>600.6587786275059</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,16 +4491,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1146.964903885608</v>
       </c>
       <c r="O4" t="n">
         <v>1181.483761245743</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>864.4976534877803</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>864.4976534877803</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X4" t="n">
-        <v>864.4976534877803</v>
+        <v>453.1819580064872</v>
       </c>
       <c r="Y4" t="n">
-        <v>637.0779828018885</v>
+        <v>225.7622873205955</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.592954512942</v>
+        <v>341.5177676270691</v>
       </c>
       <c r="C5" t="n">
-        <v>1233.490885736769</v>
+        <v>307.4156988508965</v>
       </c>
       <c r="D5" t="n">
-        <v>1201.621504951618</v>
+        <v>275.5463180657451</v>
       </c>
       <c r="E5" t="n">
-        <v>767.846760109913</v>
+        <v>245.8119772644443</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9793305191208</v>
+        <v>221.9849517140561</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233711</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="L5" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="M5" t="n">
-        <v>50.43238658947712</v>
+        <v>674.5331706342566</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726458</v>
+        <v>1298.633954679036</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717425</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762204</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
         <v>2352.465264720799</v>
@@ -4597,22 +4597,22 @@
         <v>2437.967455657693</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.967455657693</v>
+        <v>2217.900228530732</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.967455657693</v>
+        <v>1958.677925847749</v>
       </c>
       <c r="V5" t="n">
-        <v>2075.350505591519</v>
+        <v>1596.060975781575</v>
       </c>
       <c r="W5" t="n">
-        <v>1713.240304038078</v>
+        <v>1595.245925233013</v>
       </c>
       <c r="X5" t="n">
-        <v>1294.097840617388</v>
+        <v>1176.103461812324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.852120957446</v>
+        <v>767.8173381119769</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326464</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947712</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947712</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947712</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>50.43238658947712</v>
+        <v>972.3985859291669</v>
       </c>
       <c r="M6" t="n">
-        <v>50.43238658947712</v>
+        <v>972.3985859291669</v>
       </c>
       <c r="N6" t="n">
-        <v>50.43238658947712</v>
+        <v>972.3985859291669</v>
       </c>
       <c r="O6" t="n">
-        <v>431.6596472970914</v>
+        <v>972.3985859291669</v>
       </c>
       <c r="P6" t="n">
-        <v>1055.760431341871</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201359</v>
+        <v>1040.830597976034</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845835</v>
+        <v>868.2688864592589</v>
       </c>
       <c r="D7" t="n">
-        <v>791.0508428861062</v>
+        <v>702.3908936607816</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>532.6328899115188</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>355.9258358732749</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>190.3345608991026</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947712</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K7" t="n">
         <v>266.2978593068819</v>
@@ -4749,28 +4749,28 @@
         <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179228</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477224</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.08069305568</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="U7" t="n">
-        <v>2066.146995686534</v>
+        <v>2243.186328726962</v>
       </c>
       <c r="V7" t="n">
-        <v>2066.146995686534</v>
+        <v>1956.230820597392</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1684.204416183684</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606238</v>
+        <v>1460.068887380913</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>1232.649216695021</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>852.5762146508135</v>
+        <v>1819.558022317326</v>
       </c>
       <c r="C8" t="n">
-        <v>818.474145874641</v>
+        <v>1785.455953541153</v>
       </c>
       <c r="D8" t="n">
-        <v>786.6047650894895</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E8" t="n">
-        <v>756.8704242881888</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
         <v>342.5313710854123</v>
@@ -4813,43 +4813,43 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1702.263968216353</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1687.161908836068</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y8" t="n">
-        <v>1278.875785135721</v>
+        <v>1841.81718876183</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -5001,13 +5001,13 @@
         <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1569.669750526085</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1324.277995859497</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
         <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5068,22 +5068,22 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
         <v>2955.199618136698</v>
@@ -5117,25 +5117,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>790.3368563937611</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C13" t="n">
-        <v>617.775144876986</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>451.8971520785087</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
         <v>102.2608402707796</v>
@@ -5199,52 +5199,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>188.8405254354664</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>463.598980006602</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>881.8088617745631</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1341.292728955476</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1783.551532113121</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.220781338902</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309244</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176945</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.3818137554</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008506</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878936</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.966900465228</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.57514579864</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1554751127483</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1656.801388721157</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1041.416826573035</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>868.8551150562604</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>702.9771222577831</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5445,43 +5445,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955475</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878947</v>
       </c>
       <c r="S16" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176944</v>
       </c>
       <c r="T16" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755399</v>
       </c>
       <c r="U16" t="n">
-        <v>2173.190181710511</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V16" t="n">
-        <v>1886.234673580942</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1614.208269167233</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1368.816514500646</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1233.235445292023</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477117</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309366</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324593</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831966</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>267.8521152449529</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707805</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707805</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130896</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.801834709351</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962456</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832887</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419178</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.995166752591</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066699</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,22 +5758,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5797,7 +5797,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="23">
@@ -5992,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2491.545339525313</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2213.112338778418</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1926.156830648849</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1654.13042623514</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1408.738671568553</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1181.319000882661</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6232,13 +6232,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
         <v>3569.079287993933</v>
@@ -6305,22 +6305,22 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1057.634124109936</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>885.0724125931612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>719.1944197946839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>549.4364160454211</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>372.7293620071773</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>207.138087033005</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2281.246080724681</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1994.290572595111</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.264168181403</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1476.872413514815</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1249.452742828923</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>2989.847090516081</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>4115.578073952528</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4115.578073952528</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3774.360577026385</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>3774.360577026385</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>3774.360577026385</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1832.79925530553</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2989.847090516081</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4115.578073952528</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4115.578073952528</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6776,28 +6776,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>666.4589603534698</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>500.5809675549925</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>330.8229638057298</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6937,13 +6937,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
         <v>1463.16863798718</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>945.7774352703902</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>945.7774352703902</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>945.7774352703902</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O36" t="n">
-        <v>945.7774352703902</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>495.3755883428635</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>318.6685343046197</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>153.0772593304474</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>451.9501773887573</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1286.300469346935</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L38" t="n">
-        <v>1286.300469346935</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M38" t="n">
-        <v>2443.348304557486</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
         <v>3569.079287993933</v>
@@ -7250,22 +7250,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L39" t="n">
-        <v>287.8657185439749</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M39" t="n">
-        <v>287.8657185439749</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N39" t="n">
-        <v>287.8657185439749</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O39" t="n">
         <v>287.8657185439749</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>904.7306530065579</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>738.8526602080806</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>569.0946564588178</v>
       </c>
       <c r="F40" t="n">
         <v>496.4142387799021</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7417,13 +7417,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
         <v>3569.079287993933</v>
@@ -7456,7 +7456,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405612</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420839</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928212</v>
+        <v>451.897152078511</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.477670376323</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7648,16 +7648,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423627</v>
@@ -7724,25 +7724,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1945.413737851061</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1673.387333437352</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1427.995578770765</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8069,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8139,19 +8139,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>34.867532687005</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8224,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="N5" t="n">
-        <v>512.4570950335037</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368464</v>
+        <v>512.4570950335039</v>
       </c>
       <c r="P5" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>577.1153547606261</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.0780411188023</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368464</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8461,22 +8461,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297622</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P9" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q9" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9415,7 +9415,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>280.9431591680341</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9652,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9889,7 +9889,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9953,10 +9953,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>161.1527324371088</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>548.405358162976</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10187,19 +10187,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>687.6461816022033</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>465.5893289127825</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10363,13 +10363,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10424,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>597.4989238114802</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>353.221552644422</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10916,7 +10916,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -11065,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11074,7 +11074,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.810729923425242e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>88.19489769745806</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>160.7958207444102</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>102.9863699957384</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.92021546249589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627267</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>81.78272691405284</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>63.43016517136702</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>18.31929241554602</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>34.67467827192613</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>48.19697732171672</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>88.19489769745815</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>80.50874676570933</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>216.2362286424011</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="C2" t="n">
-        <v>495936.2708986278</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="D2" t="n">
         <v>495936.2708986277</v>
@@ -26325,16 +26325,16 @@
         <v>487343.2653270508</v>
       </c>
       <c r="F2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="G2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="H2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="I2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="J2" t="n">
         <v>487343.2653270507</v>
@@ -26343,7 +26343,7 @@
         <v>487343.2653270507</v>
       </c>
       <c r="L2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="M2" t="n">
         <v>487343.2653270508</v>
@@ -26352,10 +26352,10 @@
         <v>487343.2653270508</v>
       </c>
       <c r="O2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="P2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270506</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501631</v>
+        <v>66587.76789501634</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998263</v>
+        <v>11527.5955499826</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877263</v>
+        <v>53045.85463877265</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.3017266222</v>
+        <v>9392.301726622178</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379876</v>
@@ -26426,28 +26426,28 @@
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>806.3323907825378</v>
+        <v>806.3323907825315</v>
       </c>
       <c r="F4" t="n">
-        <v>806.3323907825749</v>
+        <v>806.3323907825313</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907825379</v>
+        <v>806.3323907825481</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907825677</v>
+        <v>806.33239078255</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
         <v>806.3323907826023</v>
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800261</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26524,46 +26524,46 @@
         <v>125152.0888319356</v>
       </c>
       <c r="C6" t="n">
-        <v>235394.7253985151</v>
+        <v>235394.7253985149</v>
       </c>
       <c r="D6" t="n">
         <v>296691.7445686368</v>
       </c>
       <c r="E6" t="n">
-        <v>226463.585109426</v>
+        <v>226440.3607700433</v>
       </c>
       <c r="F6" t="n">
-        <v>408818.6943304758</v>
+        <v>408795.4699910929</v>
       </c>
       <c r="G6" t="n">
-        <v>408818.6943304757</v>
+        <v>408795.4699910929</v>
       </c>
       <c r="H6" t="n">
-        <v>408818.6943304757</v>
+        <v>408795.469991093</v>
       </c>
       <c r="I6" t="n">
-        <v>408818.6943304755</v>
+        <v>408795.4699910929</v>
       </c>
       <c r="J6" t="n">
-        <v>297804.2289854854</v>
+        <v>297781.0046461027</v>
       </c>
       <c r="K6" t="n">
-        <v>355772.839691703</v>
+        <v>355749.6153523203</v>
       </c>
       <c r="L6" t="n">
-        <v>399426.3926038534</v>
+        <v>399403.1682644708</v>
       </c>
       <c r="M6" t="n">
-        <v>256618.5233924881</v>
+        <v>256595.2990531054</v>
       </c>
       <c r="N6" t="n">
-        <v>408818.6943304756</v>
+        <v>408795.469991093</v>
       </c>
       <c r="O6" t="n">
-        <v>408818.6943304756</v>
+        <v>408795.469991093</v>
       </c>
       <c r="P6" t="n">
-        <v>408818.6943304756</v>
+        <v>408795.4699910929</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368464</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483597</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939294</v>
+        <v>37.11037423939285</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483597</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939294</v>
+        <v>37.11037423939285</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768882</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483597</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939294</v>
+        <v>37.11037423939285</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>25.05286859205029</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>188.2245344746683</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8454203991584</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27551,13 +27551,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27599,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>241.4867508963142</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27624,19 +27624,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>227.5468135896355</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>42.31780050516988</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>247.0043103439711</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>21.04366360517864</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>253.4649560972574</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>13.39309262413559</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>161.9268490649756</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28517,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-4.127844548098704e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-8.801431642444337e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,13 +34710,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="P2" t="n">
-        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34789,13 +34789,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34859,19 +34859,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>34.867532687005</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34944,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="N5" t="n">
-        <v>512.4570950335037</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368464</v>
+        <v>512.4570950335039</v>
       </c>
       <c r="P5" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>577.1153547606261</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.0780411188023</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368464</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094343</v>
@@ -35114,7 +35114,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35181,22 +35181,22 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297622</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P9" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q9" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743907757</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35576,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>109.7971848772036</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35813,7 +35813,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645545</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36135,7 +36135,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>280.9431591680341</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36360,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36609,7 +36609,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
@@ -36673,10 +36673,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>161.1527324371088</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>548.405358162976</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>687.6461816022033</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>465.5893289127825</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37083,13 +37083,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>597.4989238114802</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>353.221552644422</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,7 +37636,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -37785,7 +37785,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37794,7 +37794,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
